--- a/myCCB/www/xMDA/xMDA_tables/figures-tables.xlsx
+++ b/myCCB/www/xMDA/xMDA_tables/figures-tables.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Year-Quarter</t>
   </si>
@@ -76,24 +76,39 @@
     <t xml:space="preserve">2021 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">2021 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">Race/Ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Percent Increase in Adjusted Rate - 2019 to 2020</t>
+    <t xml:space="preserve">Percent Increase in Adjusted Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 to 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
   </si>
   <si>
     <t xml:space="preserve">Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Indian or Alaska Native</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black</t>
-  </si>
-  <si>
     <t xml:space="preserve">Native Hawaiian and other Pacific Islander</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
     <t xml:space="preserve">White</t>
   </si>
   <si>
+    <t xml:space="preserve">2019 to 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Standard Error</t>
   </si>
   <si>
@@ -127,18 +145,39 @@
     <t xml:space="preserve">Age-Adjusted Death Rate</t>
   </si>
   <si>
+    <t xml:space="preserve">Trachea, bronchus and lung cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertensive heart disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ischemic heart disease</t>
   </si>
   <si>
+    <t xml:space="preserve">Stroke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diabetes mellitus</t>
   </si>
   <si>
     <t xml:space="preserve">Alzheimer’s disease and other dementias</t>
   </si>
   <si>
+    <t xml:space="preserve">Kidney diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road injury</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drug overdose (poisoning/substance use disorders)</t>
   </si>
   <si>
+    <t xml:space="preserve">Alcohol-related conditions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homicide/Interpersonal violence</t>
   </si>
   <si>
@@ -148,10 +187,10 @@
     <t xml:space="preserve">Age Group</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 to 2020 Percent Change in Total Number of Deaths due to COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019 to 2020 Percent Change in Total Number of Deaths due to Causes other than COVID-19</t>
+    <t xml:space="preserve">Percent Change in Total Number of Deaths due to COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Change in Total Number of Deaths due to Causes other than COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">0 - 4</t>
@@ -187,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -227,8 +266,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B18" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B21" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B21"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Year-Quarter"/>
     <tableColumn id="2" name="All-Cause Age-Adjusted Death Rate"/>
@@ -238,19 +277,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B8" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Race/Ethnicity"/>
-    <tableColumn id="2" name="Percent Increase in Adjusted Rate - 2019 to 2020"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C15" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="Race/Ethnicity"/>
+    <tableColumn id="3" name="Percent Increase in Adjusted Rate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D55" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D73" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D73"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Year-Quarter"/>
     <tableColumn id="2" name="Race/Ethnicity"/>
@@ -262,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C31" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C49" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C49"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Year-Quarter"/>
     <tableColumn id="2" name="Race/Ethnicity"/>
@@ -274,10 +314,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:C91" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:C147" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C147"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Year-Quarter"/>
+    <tableColumn id="1" name="Year"/>
     <tableColumn id="2" name="Cause"/>
     <tableColumn id="3" name="Age-Adjusted Death Rate"/>
   </tableColumns>
@@ -286,13 +326,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D61" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D61"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:E121" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E121"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Race/Ethnicity"/>
     <tableColumn id="2" name="Age Group"/>
-    <tableColumn id="3" name="2019 to 2020 Percent Change in Total Number of Deaths due to COVID-19"/>
-    <tableColumn id="4" name="2019 to 2020 Percent Change in Total Number of Deaths due to Causes other than COVID-19"/>
+    <tableColumn id="3" name="Year"/>
+    <tableColumn id="4" name="Percent Change in Total Number of Deaths due to COVID-19"/>
+    <tableColumn id="5" name="Percent Change in Total Number of Deaths due to Causes other than COVID-19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,10 +617,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -720,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>193.8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +769,31 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>213.9</v>
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>142.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>160.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>167.4</v>
       </c>
     </row>
   </sheetData>
@@ -741,79 +806,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="44.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="50.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="44.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="35.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.343</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.218</v>
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.199</v>
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.195</v>
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.194</v>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.075</v>
+      <c r="C10" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.082</v>
       </c>
     </row>
   </sheetData>
@@ -826,10 +993,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -844,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>180.6</v>
@@ -872,10 +1039,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>173.3</v>
+        <v>173.9</v>
       </c>
       <c r="D3" t="n">
         <v>9.7</v>
@@ -886,10 +1053,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>247.3</v>
+        <v>248</v>
       </c>
       <c r="D4" t="n">
         <v>11.2</v>
@@ -897,10 +1064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>111.5</v>
@@ -914,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>114.4</v>
@@ -928,10 +1095,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>165.3</v>
+        <v>165.4</v>
       </c>
       <c r="D7" t="n">
         <v>1.5</v>
@@ -939,10 +1106,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>231.1</v>
@@ -956,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>233.5</v>
@@ -970,10 +1137,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>301.4</v>
+        <v>303.4</v>
       </c>
       <c r="D10" t="n">
         <v>3.5</v>
@@ -981,10 +1148,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
       <c r="C11" t="n">
         <v>139.9</v>
@@ -998,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>138.7</v>
@@ -1012,10 +1179,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>260.7</v>
+        <v>261.1</v>
       </c>
       <c r="D13" t="n">
         <v>1.5</v>
@@ -1023,10 +1190,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>201.7</v>
@@ -1040,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>199.8</v>
@@ -1054,10 +1221,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>299.3</v>
+        <v>298.8</v>
       </c>
       <c r="D16" t="n">
         <v>14.3</v>
@@ -1065,10 +1232,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
         <v>177.2</v>
@@ -1082,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
         <v>166.4</v>
@@ -1096,10 +1263,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>192.4</v>
+        <v>193</v>
       </c>
       <c r="D19" t="n">
         <v>0.9</v>
@@ -1107,10 +1274,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>160.3</v>
@@ -1124,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
         <v>185.3</v>
@@ -1135,72 +1302,72 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>97.6</v>
+        <v>189.7</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>113.3</v>
+        <v>97.6</v>
       </c>
       <c r="D23" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>210.5</v>
+        <v>113.3</v>
       </c>
       <c r="D24" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>246.9</v>
+        <v>100.1</v>
       </c>
       <c r="D25" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>124.5</v>
+        <v>210.5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
@@ -1208,167 +1375,167 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>155.7</v>
+        <v>246.9</v>
       </c>
       <c r="D27" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>184.9</v>
+        <v>214</v>
       </c>
       <c r="D28" t="n">
-        <v>12.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>204.1</v>
+        <v>124.5</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>156.3</v>
+        <v>155.7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>158.6</v>
+        <v>130.4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>158.8</v>
+        <v>184.9</v>
       </c>
       <c r="D32" t="n">
-        <v>9.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>199.5</v>
+        <v>203.2</v>
       </c>
       <c r="D33" t="n">
-        <v>10.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>93.5</v>
+        <v>203.3</v>
       </c>
       <c r="D34" t="n">
-        <v>1.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>114.4</v>
+        <v>156.3</v>
       </c>
       <c r="D35" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7</v>
+        <v>158.6</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C37" t="n">
-        <v>255.3</v>
+        <v>149.7</v>
       </c>
       <c r="D37" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" t="n">
-        <v>120.5</v>
+        <v>158.8</v>
       </c>
       <c r="D38" t="n">
-        <v>1.1</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="39">
@@ -1376,236 +1543,488 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39" t="n">
-        <v>176.4</v>
+        <v>199.5</v>
       </c>
       <c r="D39" t="n">
-        <v>1.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="n">
-        <v>180.6</v>
+        <v>225.5</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" t="n">
-        <v>230.4</v>
+        <v>93.5</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>150.5</v>
+        <v>114.4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="n">
-        <v>165.5</v>
+        <v>106.4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>164.3</v>
+        <v>205.7</v>
       </c>
       <c r="D44" t="n">
-        <v>9.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C45" t="n">
-        <v>224.6</v>
+        <v>255.3</v>
       </c>
       <c r="D45" t="n">
-        <v>10.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>103.6</v>
+        <v>244.7</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C47" t="n">
-        <v>142.9</v>
+        <v>120.5</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>222</v>
+        <v>176.5</v>
       </c>
       <c r="D48" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C49" t="n">
-        <v>282.6</v>
+        <v>153.7</v>
       </c>
       <c r="D49" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>129.9</v>
+        <v>180.6</v>
       </c>
       <c r="D50" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
-        <v>214.2</v>
+        <v>230.4</v>
       </c>
       <c r="D51" t="n">
-        <v>1.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>197.1</v>
+        <v>255</v>
       </c>
       <c r="D52" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C53" t="n">
-        <v>269.9</v>
+        <v>150.5</v>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
         <v>32</v>
       </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
       <c r="C54" t="n">
-        <v>162.1</v>
+        <v>165.6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="n">
+        <v>165</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
         <v>17</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="C55" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C59" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="n">
+        <v>143</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="n">
+        <v>222</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="n">
+        <v>283</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="n">
+        <v>214.3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="n">
+        <v>186</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="D73" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -1619,10 +2038,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1636,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -1647,10 +2066,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="3">
@@ -1658,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>0.026</v>
@@ -1669,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
@@ -1680,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
         <v>-0.009</v>
@@ -1691,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
         <v>-0.009</v>
@@ -1702,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>-0.061</v>
@@ -1713,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>0.156</v>
@@ -1724,7 +2143,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>0.161</v>
@@ -1735,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>0.173</v>
@@ -1746,7 +2165,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>0.251</v>
@@ -1757,10 +2176,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="13">
@@ -1768,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>0.015</v>
@@ -1779,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
         <v>0.256</v>
@@ -1790,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>0.224</v>
@@ -1801,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
         <v>0.241</v>
@@ -1812,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
         <v>0.465</v>
@@ -1823,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>0.276</v>
@@ -1834,7 +2253,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
         <v>0.1</v>
@@ -1845,10 +2264,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="21">
@@ -1856,10 +2275,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="22">
@@ -1867,10 +2286,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="23">
@@ -1878,10 +2297,10 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0.649</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24">
@@ -1889,7 +2308,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>0.369</v>
@@ -1900,10 +2319,10 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="26">
@@ -1911,10 +2330,10 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="27">
@@ -1922,10 +2341,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="28">
@@ -1933,10 +2352,10 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>0.304</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="29">
@@ -1944,10 +2363,10 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>0.864</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="30">
@@ -1955,10 +2374,10 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="31">
@@ -1966,10 +2385,208 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.086</v>
+      <c r="C33" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.042</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.063</v>
       </c>
     </row>
   </sheetData>
@@ -1982,1017 +2599,1633 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="6.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="51.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="25.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" t="n">
+        <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>24.4</v>
+        <v>36.106</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" t="n">
+        <v>2010</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>3.9</v>
+        <v>22.0462</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>2010</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>107.444</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>2</v>
+      <c r="A5" t="n">
+        <v>2010</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>2.6</v>
+        <v>37.4742</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>2</v>
+      <c r="A6" t="n">
+        <v>2010</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>1.3</v>
+        <v>17.5368</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="A7" t="n">
+        <v>2010</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5</v>
+        <v>49.0761</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="A8" t="n">
+        <v>2010</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>3.1</v>
+        <v>10.7542</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="A9" t="n">
+        <v>2010</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>13.7</v>
+        <v>35.0508</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>3</v>
+      <c r="A10" t="n">
+        <v>2010</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>2.9</v>
+        <v>7.88032</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>3</v>
+      <c r="A11" t="n">
+        <v>2010</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
-        <v>1.4</v>
+        <v>8.49398</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="A12" t="n">
+        <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
-        <v>19.1</v>
+        <v>10.8831</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>4</v>
+      <c r="A13" t="n">
+        <v>2010</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5.11916</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>4</v>
+      <c r="A14" t="n">
+        <v>2011</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>34.5642</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>4</v>
+      <c r="A15" t="n">
+        <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>22.5752</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>4</v>
+      <c r="A16" t="n">
+        <v>2011</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>1.3</v>
+        <v>105.829</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>5</v>
+      <c r="A17" t="n">
+        <v>2011</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>21.8</v>
+        <v>36.1301</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>5</v>
+      <c r="A18" t="n">
+        <v>2011</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
-        <v>3.7</v>
+        <v>14.7055</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>5</v>
+      <c r="A19" t="n">
+        <v>2011</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>14.8</v>
+        <v>52.89</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>5</v>
+      <c r="A20" t="n">
+        <v>2011</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
-        <v>2.7</v>
+        <v>13.1267</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>5</v>
+      <c r="A21" t="n">
+        <v>2011</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>1.2</v>
+        <v>35.0876</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>6</v>
+      <c r="A22" t="n">
+        <v>2011</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>23.5</v>
+        <v>7.87938</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>6</v>
+      <c r="A23" t="n">
+        <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>3.9</v>
+        <v>8.73921</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>6</v>
+      <c r="A24" t="n">
+        <v>2011</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>16.4</v>
+        <v>11.1741</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>6</v>
+      <c r="A25" t="n">
+        <v>2011</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>3.1</v>
+        <v>5.16984</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>6</v>
+      <c r="A26" t="n">
+        <v>2012</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="n">
-        <v>1.2</v>
+        <v>32.8416</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>7</v>
+      <c r="A27" t="n">
+        <v>2012</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>19.7</v>
+        <v>23.4287</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>7</v>
+      <c r="A28" t="n">
+        <v>2012</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>101.372</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>7</v>
+      <c r="A29" t="n">
+        <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>35.1084</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>7</v>
+      <c r="A30" t="n">
+        <v>2012</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>14.3869</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>7</v>
+      <c r="A31" t="n">
+        <v>2012</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C31" t="n">
-        <v>1.3</v>
+        <v>53.7463</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>8</v>
+      <c r="A32" t="n">
+        <v>2012</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C32" t="n">
-        <v>18.6</v>
+        <v>13.6011</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>8</v>
+      <c r="A33" t="n">
+        <v>2012</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>33.007</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>8</v>
+      <c r="A34" t="n">
+        <v>2012</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C34" t="n">
-        <v>12.6</v>
+        <v>8.25612</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>8</v>
+      <c r="A35" t="n">
+        <v>2012</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C35" t="n">
-        <v>3.4</v>
+        <v>8.82741</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>8</v>
+      <c r="A36" t="n">
+        <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C36" t="n">
-        <v>1.4</v>
+        <v>10.7776</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>9</v>
+      <c r="A37" t="n">
+        <v>2012</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
-        <v>20.1</v>
+        <v>5.42633</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>9</v>
+      <c r="A38" t="n">
+        <v>2013</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>3.3</v>
+        <v>31.7509</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>9</v>
+      <c r="A39" t="n">
+        <v>2013</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>14.2</v>
+        <v>23.8913</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>9</v>
+      <c r="A40" t="n">
+        <v>2013</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>3.1</v>
+        <v>98.8991</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>9</v>
+      <c r="A41" t="n">
+        <v>2013</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>1.2</v>
+        <v>34.7088</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>10</v>
+      <c r="A42" t="n">
+        <v>2013</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>21.4</v>
+        <v>12.7575</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>10</v>
+      <c r="A43" t="n">
+        <v>2013</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>3.7</v>
+        <v>55.7796</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>10</v>
+      <c r="A44" t="n">
+        <v>2013</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>14.7</v>
+        <v>15.0943</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>10</v>
+      <c r="A45" t="n">
+        <v>2013</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>3.4</v>
+        <v>33.7484</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>10</v>
+      <c r="A46" t="n">
+        <v>2013</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>1.2</v>
+        <v>8.67191</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>11</v>
+      <c r="A47" t="n">
+        <v>2013</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>18.9</v>
+        <v>9.32851</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>11</v>
+      <c r="A48" t="n">
+        <v>2013</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>3.2</v>
+        <v>10.8915</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>11</v>
+      <c r="A49" t="n">
+        <v>2013</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>13.4</v>
+        <v>4.98619</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>11</v>
+      <c r="A50" t="n">
+        <v>2014</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>3.6</v>
+        <v>30.377</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>11</v>
+      <c r="A51" t="n">
+        <v>2014</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n">
-        <v>1.2</v>
+        <v>22.6261</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>12</v>
+      <c r="A52" t="n">
+        <v>2014</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C52" t="n">
-        <v>17.6</v>
+        <v>90.4281</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>12</v>
+      <c r="A53" t="n">
+        <v>2014</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C53" t="n">
-        <v>2.8</v>
+        <v>33.8392</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>12</v>
+      <c r="A54" t="n">
+        <v>2014</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C54" t="n">
-        <v>12.8</v>
+        <v>12.7886</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>12</v>
+      <c r="A55" t="n">
+        <v>2014</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C55" t="n">
-        <v>3.9</v>
+        <v>55.0867</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
-        <v>12</v>
+      <c r="A56" t="n">
+        <v>2014</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C56" t="n">
-        <v>1.2</v>
+        <v>15.4024</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>13</v>
+      <c r="A57" t="n">
+        <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
-        <v>19.6</v>
+        <v>30.5777</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>13</v>
+      <c r="A58" t="n">
+        <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C58" t="n">
-        <v>3.6</v>
+        <v>8.92582</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>13</v>
+      <c r="A59" t="n">
+        <v>2014</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C59" t="n">
-        <v>14.7</v>
+        <v>9.91724</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>13</v>
+      <c r="A60" t="n">
+        <v>2014</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C60" t="n">
-        <v>3.8</v>
+        <v>11.1932</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>13</v>
+      <c r="A61" t="n">
+        <v>2014</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2</v>
+        <v>4.8416</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>14</v>
+      <c r="A62" t="n">
+        <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6</v>
+        <v>29.5737</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>14</v>
+      <c r="A63" t="n">
+        <v>2015</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C63" t="n">
-        <v>20.7</v>
+        <v>24.8024</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>14</v>
+      <c r="A64" t="n">
+        <v>2015</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C64" t="n">
-        <v>3.6</v>
+        <v>91.2093</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s">
-        <v>14</v>
+      <c r="A65" t="n">
+        <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>36.1227</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s">
-        <v>14</v>
+      <c r="A66" t="n">
+        <v>2015</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C66" t="n">
-        <v>4.4</v>
+        <v>13.3057</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s">
-        <v>14</v>
+      <c r="A67" t="n">
+        <v>2015</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2</v>
+        <v>56.4159</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>15</v>
+      <c r="A68" t="n">
+        <v>2015</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C68" t="n">
-        <v>12.5</v>
+        <v>16.5471</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>15</v>
+      <c r="A69" t="n">
+        <v>2015</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C69" t="n">
-        <v>19.4</v>
+        <v>31.6107</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>15</v>
+      <c r="A70" t="n">
+        <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C70" t="n">
-        <v>3.7</v>
+        <v>9.54069</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>15</v>
+      <c r="A71" t="n">
+        <v>2015</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C71" t="n">
-        <v>14.5</v>
+        <v>11.0161</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>15</v>
+      <c r="A72" t="n">
+        <v>2015</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C72" t="n">
-        <v>5.5</v>
+        <v>12.0297</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>15</v>
+      <c r="A73" t="n">
+        <v>2015</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C73" t="n">
-        <v>1.5</v>
+        <v>5.32911</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s">
-        <v>16</v>
+      <c r="A74" t="n">
+        <v>2016</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C74" t="n">
-        <v>18.8</v>
+        <v>27.2848</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>16</v>
+      <c r="A75" t="n">
+        <v>2016</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C75" t="n">
-        <v>19.6</v>
+        <v>24.2643</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>16</v>
+      <c r="A76" t="n">
+        <v>2016</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C76" t="n">
-        <v>3.7</v>
+        <v>86.9024</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>16</v>
+      <c r="A77" t="n">
+        <v>2016</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>36.5792</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s">
-        <v>16</v>
+      <c r="A78" t="n">
+        <v>2016</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C78" t="n">
-        <v>6.3</v>
+        <v>13.3066</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s">
-        <v>16</v>
+      <c r="A79" t="n">
+        <v>2016</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C79" t="n">
-        <v>1.8</v>
+        <v>56.0112</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s">
-        <v>17</v>
+      <c r="A80" t="n">
+        <v>2016</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C80" t="n">
-        <v>34</v>
+        <v>16.5635</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>17</v>
+      <c r="A81" t="n">
+        <v>2016</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C81" t="n">
-        <v>21.6</v>
+        <v>30.9353</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>17</v>
+      <c r="A82" t="n">
+        <v>2016</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C82" t="n">
-        <v>4.7</v>
+        <v>10.522</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>17</v>
+      <c r="A83" t="n">
+        <v>2016</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C83" t="n">
-        <v>16.7</v>
+        <v>10.6747</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
-        <v>17</v>
+      <c r="A84" t="n">
+        <v>2016</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>5.5</v>
+        <v>11.5112</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s">
-        <v>17</v>
+      <c r="A85" t="n">
+        <v>2016</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C85" t="n">
-        <v>1.8</v>
+        <v>5.43266</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s">
-        <v>18</v>
+      <c r="A86" t="n">
+        <v>2017</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C86" t="n">
-        <v>57.5</v>
+        <v>26.0627</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
-        <v>18</v>
+      <c r="A87" t="n">
+        <v>2017</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C87" t="n">
-        <v>21.6</v>
+        <v>26.0887</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>18</v>
+      <c r="A88" t="n">
+        <v>2017</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C88" t="n">
-        <v>4.6</v>
+        <v>85.3591</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s">
-        <v>18</v>
+      <c r="A89" t="n">
+        <v>2017</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>15.9</v>
+        <v>37.1937</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s">
-        <v>18</v>
+      <c r="A90" t="n">
+        <v>2017</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C90" t="n">
-        <v>5.1</v>
+        <v>13.5917</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s">
-        <v>18</v>
+      <c r="A91" t="n">
+        <v>2017</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C91" t="n">
-        <v>1.6</v>
+        <v>57.0051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" t="n">
+        <v>17.1764</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30.3942</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10.4591</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11.1232</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11.4555</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5.18486</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" t="n">
+        <v>24.3473</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="n">
+        <v>26.1419</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="n">
+        <v>81.6631</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="n">
+        <v>36.5012</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" t="n">
+        <v>13.1127</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="n">
+        <v>56.0248</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" t="n">
+        <v>16.729</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="n">
+        <v>29.0991</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10.2838</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="n">
+        <v>12.5957</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11.5132</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.02438</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22.8703</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26.0612</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" t="n">
+        <v>77.27</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" t="n">
+        <v>36.2026</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" t="n">
+        <v>13.2687</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="n">
+        <v>55.351</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" t="n">
+        <v>16.7645</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="n">
+        <v>26.9815</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.99738</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" t="n">
+        <v>14.6852</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.8373</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.7256</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" t="n">
+        <v>65.6465</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="n">
+        <v>21.4282</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="n">
+        <v>28.6181</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" t="n">
+        <v>80.8838</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" t="n">
+        <v>37.4001</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B127" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15.6232</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="n">
+        <v>60.8818</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" t="n">
+        <v>18.322</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" t="n">
+        <v>25.5679</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11.135</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" t="n">
+        <v>21.9938</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B133" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" t="n">
+        <v>13.8182</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B134" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.32901</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" t="n">
+        <v>90.8298</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20.5044</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27.9227</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" t="n">
+        <v>75.5563</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="n">
+        <v>36.9532</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="n">
+        <v>14.9746</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B141" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" t="n">
+        <v>55.602</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" t="n">
+        <v>18.036</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" t="n">
+        <v>22.1121</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.1636</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B145" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" t="n">
+        <v>24.1237</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.9491</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.40468</v>
       </c>
     </row>
   </sheetData>
@@ -3005,846 +4238,2026 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="44.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="71.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="89.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="58.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="76.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2"/>
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
       <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.006</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-0.177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.003</v>
       </c>
-      <c r="D5" t="n">
-        <v>-0.096</v>
+      <c r="E5" t="n">
+        <v>-0.094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6"/>
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
       <c r="D6"/>
+      <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>-0.183</v>
+      <c r="E7" t="n">
+        <v>-0.181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8"/>
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
       <c r="D8"/>
+      <c r="E8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="n">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="n">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.004</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12"/>
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
       <c r="D12"/>
+      <c r="E12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="n">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.066</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14"/>
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
       <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="n">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.035</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.019</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.486</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.036</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.327</v>
+      <c r="E17" t="n">
+        <v>0.328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18"/>
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
       <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.015</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="n">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.04</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-0.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="n">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.044</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.084</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="n">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.044</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.327</v>
+      <c r="E22" t="n">
+        <v>0.328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.097</v>
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.275</v>
+        <v>0.096</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.276</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="n">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.191</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="n">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.011</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="n">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.067</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.109</v>
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
       </c>
       <c r="D27" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.062</v>
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256</v>
+        <v>0.061</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="n">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.219</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="n">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.147</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.074</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="n">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.024</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.192</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="n">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.108</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.097</v>
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124</v>
+        <v>0.098</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="n">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.084</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.201</v>
+      <c r="E34" t="n">
+        <v>0.202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.327</v>
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
       </c>
       <c r="D35" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="n">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.212</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0.169</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="n">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.035</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0.038</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.033</v>
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
       </c>
       <c r="D38" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="n">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.13</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.096</v>
+      <c r="E39" t="n">
+        <v>0.097</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="n">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.101</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0.133</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="n">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.361</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0.118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.221</v>
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177</v>
+        <v>0.227</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.045</v>
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
       </c>
       <c r="D43" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" t="n">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.17</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0.105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="n">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.157</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>0.129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.116</v>
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.396</v>
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157</v>
+        <v>0.397</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.156</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="n">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.078</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.059</v>
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.061</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="n">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.111</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.178</v>
+      <c r="E50" t="n">
+        <v>0.185</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.141</v>
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.092</v>
+        <v>0.142</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.091</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.115</v>
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
       </c>
       <c r="D52" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.064</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="n">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.291</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>0.099</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="n">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.16</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>0.175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="n">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.074</v>
       </c>
-      <c r="D55" t="n">
-        <v>0.037</v>
+      <c r="E55" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="n">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.119</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" t="n">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.145</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.11</v>
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
       </c>
       <c r="D58" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" t="n">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.19</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>0.117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.075</v>
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.12</v>
+        <v>0.076</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
         <v>27</v>
       </c>
-      <c r="B61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.143</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.072</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.136</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.074</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.537</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.294</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E121" t="n">
         <v>0</v>
       </c>
     </row>
